--- a/biology/Botanique/Impatiens_omeiana/Impatiens_omeiana.xlsx
+++ b/biology/Botanique/Impatiens_omeiana/Impatiens_omeiana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Impatiens omeiana (l’impatiente du mont Omei, la balsamine du mont Omei ou l'impatiente rustique) est une espèce de plantes à fleurs dicotylédones de la famille des Balsaminaceae, endémique de Chine.
-L'épithète spécifique, omeiana, fait référence au mont Omei[2] (ou Emei), site d'origine de la plante à l'état sauvage, qui est aussi l'un des quatre monts bouddhistes sacrés de Chine.
+L'épithète spécifique, omeiana, fait référence au mont Omei (ou Emei), site d'origine de la plante à l'état sauvage, qui est aussi l'un des quatre monts bouddhistes sacrés de Chine.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Synonyme</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (30 septembre 2015)[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (30 septembre 2015) :
 Impatiens tubulosa f. omeiana E. Pritzel ex Diels</t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Impatiens omeiana est une plante herbacée, vivace par son rhizome, de 30 à 50 cm de haut, à port dressé.
 Les feuilles, alternes, caduques, sont souvent groupées en rosette à la partie supérieure de la tige.
@@ -552,7 +568,7 @@
 Les fleurs, assez grandes, de couleur jaune, sont portées par des pédicelles de 2 cm de long environ.
 Le calice est formé de quatre sépales latéraux ; les deux extérieurs obliquement ovales ; les deux intérieurs falciformes.
 La corolle est formée d'un pétale supérieur, triangulaire-orbiculaire, arrondi au sommet, cuspidé, et de pétales latéraux, soudés, non étranglés, bilobés. Les anthères sont obtuses, l'ovaire fusiforme.  
-Les fruits sont des capsules à « déhiscence explosive »[4].
+Les fruits sont des capsules à « déhiscence explosive ».
 </t>
         </is>
       </c>
@@ -581,10 +597,12 @@
           <t>Distribution et habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Impatiens tubulosa est une plante endémique de la région du Sichuan en Chine.
-On la rencontre en sous-bois dans les étages de bosquets et forêts et à la lisière des forêts à des altitudes comprises entre 900 et 1 000 mètres, notamment sur les pentes du mont Emei[4].
+On la rencontre en sous-bois dans les étages de bosquets et forêts et à la lisière des forêts à des altitudes comprises entre 900 et 1 000 mètres, notamment sur les pentes du mont Emei.
 C'est une plante cultivée comme plante ornementale. On l'utilise comme plante couvre-sol en situation ombragée. Elle est rustique jusqu'à −20 °C grâce à son rhizome souterrain.
 </t>
         </is>
